--- a/envio de emails/texto_email.xlsx
+++ b/envio de emails/texto_email.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\f0fp0228\Desktop\Curso DEV\rpa_localizar_email\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\f0fp0228\Desktop\Curso DEV\rpa_localizar_email\envio de emails\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2189ED83-0C0B-4B8C-8C90-C28B52D29A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8798AF-8C4D-4270-98FA-1A5F2FACCC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3990" yWindow="4305" windowWidth="19425" windowHeight="10425" xr2:uid="{983662F1-4133-469E-A35C-DCD2BF9DC280}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{983662F1-4133-469E-A35C-DCD2BF9DC280}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
-  <si>
-    <t>Wolnei</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Blumenau</t>
   </si>
@@ -80,45 +77,15 @@
     <t>email</t>
   </si>
   <si>
-    <t>wolneihd@gmail.com</t>
-  </si>
-  <si>
-    <t>wolneihd@hotmail.com</t>
-  </si>
-  <si>
     <t>Meu titulo 1</t>
   </si>
   <si>
-    <t>Meu titulo 2</t>
-  </si>
-  <si>
-    <t>Meu titulo 3</t>
-  </si>
-  <si>
     <t>Sr.</t>
   </si>
   <si>
-    <t>Sra.</t>
-  </si>
-  <si>
-    <t>Amélia</t>
-  </si>
-  <si>
     <t>Antônio</t>
   </si>
   <si>
-    <t>São Paulo</t>
-  </si>
-  <si>
-    <t>Curitiba</t>
-  </si>
-  <si>
-    <t>SP</t>
-  </si>
-  <si>
-    <t>PR</t>
-  </si>
-  <si>
     <t>teste 1</t>
   </si>
   <si>
@@ -134,10 +101,7 @@
     <t>teste 5</t>
   </si>
   <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>xyz</t>
+    <t>teste@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -551,7 +515,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,129 +527,84 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="1">
-        <v>123</v>
-      </c>
+      <c r="A4" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{9457AD95-CC5B-43A1-8058-D892CAFF6CB8}"/>
-    <hyperlink ref="A3:A4" r:id="rId2" display="wolneihd@gmail.com" xr:uid="{FA32E336-56B4-433C-B96A-41DA4DA40AB9}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{5A2C6120-B775-461D-A298-269324D260FA}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
